--- a/docs/assets/disciplinas/LOM3222.xlsx
+++ b/docs/assets/disciplinas/LOM3222.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno os conhecimentos básicos de materiais dielétricos e piezelétricos visando sua aplicação em dispositivos.</t>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,63 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Tipos e propriedades dos materiais dielétricos. Materiais ferroelétricos e piezelétricos. Materiais multiferróicos. Preparação e caracterização de materiais dielétricos. Dispositivos baseados em materiais dielétricos. Aplicações.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Fundamentos. Teoria estatística e transições de fases. Fenomenologia e comportamento macroscópico. Domínios, imperfeições e polarização. Propriedades elétricas e termodinâmicas. Estruturas cristalográficas. Ordem-desordem em materiais ferroelétricos. Materiais e dispositivos ferroelétricos, piezelétricos, piroelétricos e multiferróicos. Aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>SCHMIDT, W. Materiais Elétricos, vol. I, Ed. Edgard Blücher, SP, 1998.
-SCHMIDT, W. Materiais Elétricos, vol. II, Ed. Edgard Blücher, SP, 1995.
-YE, Z. Handbook of Advanced Dielectric, Piezoelectric and Ferroelectric Materials, CRC Press, 2008.
-KAO, K. C. Dielectric Phenomena in Solids, Academic Press, 2004.
-HIPPEL, A. R. Dielectric Materials and Applications, Artech House, 1995.
-CHOUDHARY, R. N. Dielectric Materials: Introduction, Research and Applications, Nova Science Publishers, 2009.
-LINES, M. E. Principles and Applications of Ferroelectrics and Related Materials, Oxford University Press, 2001.
-YANG, J. An Introduction to Theory of Piezoelectricity, Springer, 2004. 
-VIVES, A. A. Piezoelectric Transducer and Applications, Springer, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -502,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -691,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -702,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
